--- a/Factures_Excel/1675 - Les entreprises Lanthier et Papineau.xlsx
+++ b/Factures_Excel/1675 - Les entreprises Lanthier et Papineau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66DC1BF-38A2-4193-96AC-D86F924F2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDFDB5-A326-4B94-86C6-309AD776CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21-03-23" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2024-10-17 - 24-24557 (2)" sheetId="13" r:id="rId9"/>
     <sheet name="2024-11-16 - 24-24631" sheetId="14" r:id="rId10"/>
     <sheet name="2024-12-22 - 24-24714" sheetId="15" r:id="rId11"/>
+    <sheet name="2025-02-28 - 25-24754" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2024-10-17 - 24-24557 (2)'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2024-11-16 - 24-24631'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-12-22 - 24-24714'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-02-28 - 25-24754'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'21-03-23'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'28-07-24'!$A$1:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'31-05-23'!$A$1:$F$87</definedName>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="150">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -490,6 +492,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Analyses demandées par le consultant de l'acheteur ;</t>
+  </si>
+  <si>
+    <t>Le 28 FÉVRIER 2025</t>
+  </si>
+  <si>
+    <t>25-24754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation aux diverses rencontres et rencontres par Vidéoconférence;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications au mémorandum fiscal pour mettre en place la réorganisation fiscale déterminée;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Révision des différentes versions de documentation juridique afférente à la présente réorganisation/transaction;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse de divers tableaux préparés par Thierry et commentaires ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous, les juristes et Thierry;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des directives à l'intention de votre comptable pour la préparation des formulaires T5/Relevés 3;</t>
   </si>
 </sst>
 </file>
@@ -1499,6 +1525,21 @@
     <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1511,25 +1552,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1786,6 +1812,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11265" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA07041D-9DA2-7286-AD69-CDF558EC7374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2661,14 +2753,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2689,265 +2781,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179" t="s">
+      <c r="B49" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="179"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -2977,17 +3069,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="179"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3094,19 +3186,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="183"/>
-      <c r="D76" s="183"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180" t="s">
+      <c r="B77" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -3114,9 +3206,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -3151,31 +3243,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="177"/>
-      <c r="E82" s="177"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="185" t="s">
+      <c r="A83" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="181"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -3187,26 +3279,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="184" t="s">
+      <c r="A87" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="184"/>
-      <c r="D87" s="184"/>
-      <c r="E87" s="184"/>
-      <c r="F87" s="184"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="175"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3216,33 +3308,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B86:E86"/>
@@ -3259,6 +3324,33 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -4164,6 +4256,877 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="142"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="142"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="141" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="142"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="142"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="144"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="142"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="141" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="142"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="142"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="141" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="142"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="142"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="142"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="141" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="142"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="142"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="141" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="141" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="143"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="148">
+        <v>86.5</v>
+      </c>
+      <c r="D66" s="149">
+        <v>350</v>
+      </c>
+      <c r="E66" s="172"/>
+      <c r="F66" s="172"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="101">
+        <v>30275</v>
+      </c>
+      <c r="F69" s="101"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="105">
+        <v>475</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="105">
+        <v>300</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="105">
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="100"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="107">
+        <v>31050</v>
+      </c>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="109">
+        <v>1552.5</v>
+      </c>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="112">
+        <v>3097.24</v>
+      </c>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="100"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>35699.74</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="110"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="110"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="110"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="202"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="154">
+        <v>35699.74</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
+      <c r="F83" s="155"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5C57DF-2F76-40E4-9942-7D8EFECC6A21}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -4341,7 +5304,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -4412,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -4463,7 +5426,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="141" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C34" s="142"/>
       <c r="D34" s="143"/>
@@ -4483,7 +5446,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="141" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C36" s="142"/>
       <c r="D36" s="143"/>
@@ -4503,7 +5466,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="141" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="C38" s="142"/>
       <c r="D38" s="143"/>
@@ -4523,7 +5486,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="141" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="143"/>
@@ -4543,7 +5506,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="141" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C42" s="142"/>
       <c r="D42" s="143"/>
@@ -4563,7 +5526,7 @@
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="141" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="C44" s="142"/>
       <c r="D44" s="143"/>
@@ -4583,7 +5546,7 @@
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="141" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C46" s="142"/>
       <c r="D46" s="143"/>
@@ -4603,7 +5566,7 @@
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="141" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C48" s="142"/>
       <c r="D48" s="143"/>
@@ -4623,7 +5586,7 @@
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="141" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C50" s="145"/>
       <c r="D50" s="145"/>
@@ -4632,9 +5595,7 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
-      <c r="B51" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B51" s="141"/>
       <c r="C51" s="142"/>
       <c r="D51" s="143"/>
       <c r="E51" s="143"/>
@@ -4642,9 +5603,7 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
-      <c r="B52" s="141" t="s">
-        <v>39</v>
-      </c>
+      <c r="B52" s="141"/>
       <c r="C52" s="142"/>
       <c r="D52" s="143"/>
       <c r="E52" s="143"/>
@@ -4652,9 +5611,7 @@
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
-      <c r="B53" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B53" s="141"/>
       <c r="C53" s="142"/>
       <c r="D53" s="143"/>
       <c r="E53" s="143"/>
@@ -4662,9 +5619,7 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
-      <c r="B54" s="141" t="s">
-        <v>52</v>
-      </c>
+      <c r="B54" s="141"/>
       <c r="C54" s="142"/>
       <c r="D54" s="143"/>
       <c r="E54" s="143"/>
@@ -4672,9 +5627,7 @@
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
-      <c r="B55" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B55" s="141"/>
       <c r="C55" s="142"/>
       <c r="D55" s="143"/>
       <c r="E55" s="143"/>
@@ -4682,9 +5635,7 @@
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
-      <c r="B56" s="141" t="s">
-        <v>140</v>
-      </c>
+      <c r="B56" s="141"/>
       <c r="C56" s="142"/>
       <c r="D56" s="143"/>
       <c r="E56" s="143"/>
@@ -4692,9 +5643,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
-      <c r="B57" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B57" s="141"/>
       <c r="C57" s="142"/>
       <c r="D57" s="143"/>
       <c r="E57" s="143"/>
@@ -4702,9 +5651,7 @@
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
-      <c r="B58" s="141" t="s">
-        <v>8</v>
-      </c>
+      <c r="B58" s="141"/>
       <c r="C58" s="142"/>
       <c r="D58" s="143"/>
       <c r="E58" s="143"/>
@@ -4712,9 +5659,7 @@
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
-      <c r="B59" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B59" s="141"/>
       <c r="C59" s="142"/>
       <c r="D59" s="143"/>
       <c r="E59" s="143"/>
@@ -4722,9 +5667,7 @@
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
-      <c r="B60" s="141" t="s">
-        <v>141</v>
-      </c>
+      <c r="B60" s="141"/>
       <c r="C60" s="142"/>
       <c r="D60" s="143"/>
       <c r="E60" s="143"/>
@@ -4756,7 +5699,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="141"/>
+      <c r="B64" s="173"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="143"/>
@@ -4778,10 +5721,10 @@
       <c r="A66" s="78"/>
       <c r="B66" s="141"/>
       <c r="C66" s="148">
-        <v>86.5</v>
+        <v>45.6</v>
       </c>
       <c r="D66" s="149">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E66" s="172"/>
       <c r="F66" s="172"/>
@@ -4810,7 +5753,7 @@
       <c r="C69" s="100"/>
       <c r="D69" s="60"/>
       <c r="E69" s="101">
-        <v>30275</v>
+        <v>18240</v>
       </c>
       <c r="F69" s="101"/>
     </row>
@@ -4822,7 +5765,7 @@
       <c r="C70" s="104"/>
       <c r="D70" s="60"/>
       <c r="E70" s="105">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="F70" s="105"/>
     </row>
@@ -4834,7 +5777,7 @@
       <c r="C71" s="104"/>
       <c r="D71" s="60"/>
       <c r="E71" s="105">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F71" s="105"/>
     </row>
@@ -4858,7 +5801,7 @@
       <c r="C73" s="100"/>
       <c r="D73" s="60"/>
       <c r="E73" s="107">
-        <v>31050</v>
+        <v>18240</v>
       </c>
       <c r="F73" s="107"/>
     </row>
@@ -4872,7 +5815,7 @@
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="109">
-        <v>1552.5</v>
+        <v>912</v>
       </c>
       <c r="F74" s="109"/>
     </row>
@@ -4886,7 +5829,7 @@
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="112">
-        <v>3097.24</v>
+        <v>1819.44</v>
       </c>
       <c r="F75" s="109"/>
     </row>
@@ -4906,7 +5849,7 @@
       <c r="C77" s="100"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117">
-        <v>35699.74</v>
+        <v>20971.439999999999</v>
       </c>
       <c r="F77" s="118"/>
     </row>
@@ -4946,7 +5889,7 @@
       <c r="C81" s="202"/>
       <c r="D81" s="153"/>
       <c r="E81" s="154">
-        <v>35699.74</v>
+        <v>20971.439999999999</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -5171,14 +6114,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5199,251 +6142,251 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="177" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179" t="s">
+      <c r="B39" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
@@ -5473,17 +6416,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -5590,19 +6533,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="183"/>
-      <c r="D75" s="183"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="179"/>
       <c r="E75" s="36"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180" t="s">
+      <c r="B76" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
       <c r="E76" s="36">
         <v>0</v>
       </c>
@@ -5610,9 +6553,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="183"/>
-      <c r="C77" s="183"/>
-      <c r="D77" s="183"/>
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="179"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
@@ -5647,31 +6590,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="177"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
+      <c r="B81" s="182"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="182"/>
+      <c r="E81" s="182"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="185" t="s">
+      <c r="A82" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="185"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
+      <c r="F82" s="176"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="181" t="s">
+      <c r="A83" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="181"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="181"/>
-      <c r="E83" s="181"/>
-      <c r="F83" s="181"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
@@ -5683,26 +6626,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="184" t="s">
+      <c r="A86" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="184"/>
-      <c r="C86" s="184"/>
-      <c r="D86" s="184"/>
-      <c r="E86" s="184"/>
-      <c r="F86" s="184"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="175"/>
-      <c r="C88" s="176"/>
-      <c r="D88" s="176"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5712,12 +6655,30 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
@@ -5730,30 +6691,12 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B77 B12:B20 B33:B66" xr:uid="{E36AFE9F-6EBA-4430-943B-E836FA51FAE3}">
@@ -5911,14 +6854,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5939,249 +6882,249 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="177" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179" t="s">
+      <c r="B44" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
@@ -6211,17 +7154,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="179"/>
-      <c r="C65" s="179"/>
-      <c r="D65" s="179"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -6328,19 +7271,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="183"/>
-      <c r="C75" s="183"/>
-      <c r="D75" s="183"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="179"/>
       <c r="E75" s="36"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="180" t="s">
+      <c r="B76" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
       <c r="E76" s="36">
         <v>0</v>
       </c>
@@ -6348,9 +7291,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="183"/>
-      <c r="C77" s="183"/>
-      <c r="D77" s="183"/>
+      <c r="B77" s="179"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="179"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
@@ -6385,31 +7328,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="177"/>
-      <c r="C81" s="177"/>
-      <c r="D81" s="177"/>
-      <c r="E81" s="177"/>
+      <c r="B81" s="182"/>
+      <c r="C81" s="182"/>
+      <c r="D81" s="182"/>
+      <c r="E81" s="182"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="185" t="s">
+      <c r="A82" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="185"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
+      <c r="B82" s="176"/>
+      <c r="C82" s="176"/>
+      <c r="D82" s="176"/>
+      <c r="E82" s="176"/>
+      <c r="F82" s="176"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="181" t="s">
+      <c r="A83" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="181"/>
-      <c r="C83" s="181"/>
-      <c r="D83" s="181"/>
-      <c r="E83" s="181"/>
-      <c r="F83" s="181"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
@@ -6421,26 +7364,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="178"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="184" t="s">
+      <c r="A86" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="184"/>
-      <c r="C86" s="184"/>
-      <c r="D86" s="184"/>
-      <c r="E86" s="184"/>
-      <c r="F86" s="184"/>
+      <c r="B86" s="175"/>
+      <c r="C86" s="175"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="175"/>
+      <c r="F86" s="175"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="175"/>
-      <c r="C88" s="176"/>
-      <c r="D88" s="176"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6450,6 +7393,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B88:D88"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B65:D65"/>
@@ -6462,36 +7435,6 @@
     <mergeCell ref="A83:F83"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="A86:F86"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B77 B12:B20 B43:B66 B33:B42" xr:uid="{A3139CC4-EA17-49B9-A08F-62F3E1349236}">
@@ -6649,14 +7592,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6677,257 +7620,257 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="177" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179" t="s">
+      <c r="B41" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179" t="s">
+      <c r="B44" s="177" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="179"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -6957,17 +7900,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="179"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7074,19 +8017,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="183"/>
-      <c r="D76" s="183"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180" t="s">
+      <c r="B77" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7094,9 +8037,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7131,31 +8074,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="177"/>
-      <c r="E82" s="177"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="185" t="s">
+      <c r="A83" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="181"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7167,26 +8110,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="184" t="s">
+      <c r="A87" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="184"/>
-      <c r="D87" s="184"/>
-      <c r="E87" s="184"/>
-      <c r="F87" s="184"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="175"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7196,12 +8139,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
@@ -7215,30 +8176,12 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{5E03DC84-AA3F-4979-ACD0-CD3DDA544630}">
@@ -7396,14 +8339,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7424,253 +8367,253 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179" t="s">
+      <c r="B35" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="B46" s="177"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="B52" s="177"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179"/>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="B56" s="177"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="B58" s="177"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179"/>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="179"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7700,17 +8643,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="179"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="179"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="177"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="179"/>
+      <c r="B67" s="177"/>
+      <c r="C67" s="177"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -7817,19 +8760,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="183"/>
-      <c r="D76" s="183"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="180" t="s">
+      <c r="B77" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -7837,9 +8780,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="179"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -7874,31 +8817,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="177"/>
-      <c r="C82" s="177"/>
-      <c r="D82" s="177"/>
-      <c r="E82" s="177"/>
+      <c r="B82" s="182"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="182"/>
+      <c r="E82" s="182"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="185" t="s">
+      <c r="A83" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
+      <c r="B83" s="176"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="176"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="176"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
-      <c r="F84" s="181"/>
+      <c r="B84" s="185"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="185"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -7910,26 +8853,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="178"/>
-      <c r="E86" s="178"/>
+      <c r="B86" s="183"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="183"/>
+      <c r="E86" s="183"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="184" t="s">
+      <c r="A87" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="184"/>
-      <c r="C87" s="184"/>
-      <c r="D87" s="184"/>
-      <c r="E87" s="184"/>
-      <c r="F87" s="184"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="175"/>
+      <c r="D87" s="175"/>
+      <c r="E87" s="175"/>
+      <c r="F87" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="175"/>
-      <c r="C89" s="176"/>
-      <c r="D89" s="176"/>
+      <c r="B89" s="180"/>
+      <c r="C89" s="181"/>
+      <c r="D89" s="181"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7939,13 +8882,30 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B57:D57"/>
@@ -7958,30 +8918,13 @@
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{0142793B-97D5-4F25-A98A-09A744201F8A}">
@@ -8139,14 +9082,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="182"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
+      <c r="B30" s="178"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8167,277 +9110,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="179" t="s">
+      <c r="B34" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="179"/>
-      <c r="D34" s="179"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="179" t="s">
+      <c r="B36" s="177" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="179" t="s">
+      <c r="B38" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="179"/>
-      <c r="C39" s="179"/>
-      <c r="D39" s="179"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="179" t="s">
+      <c r="B40" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="179"/>
-      <c r="D40" s="179"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="179" t="s">
+      <c r="B42" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="179" t="s">
+      <c r="B44" s="177" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="179"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="179"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="179" t="s">
+      <c r="B46" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="179"/>
-      <c r="D46" s="179"/>
+      <c r="C46" s="177"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="179"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="179"/>
+      <c r="B47" s="177"/>
+      <c r="C47" s="177"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="179" t="s">
+      <c r="B48" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="179"/>
-      <c r="D49" s="179"/>
+      <c r="B49" s="177"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="179" t="s">
+      <c r="B50" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="179"/>
-      <c r="D50" s="179"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="179"/>
-      <c r="D51" s="179"/>
+      <c r="B51" s="177"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="179" t="s">
+      <c r="B52" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="179"/>
-      <c r="D52" s="179"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="179"/>
-      <c r="C53" s="179"/>
-      <c r="D53" s="179"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="179" t="s">
+      <c r="B54" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="179"/>
-      <c r="D54" s="179"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="179"/>
-      <c r="C55" s="179"/>
-      <c r="D55" s="179"/>
+      <c r="B55" s="177"/>
+      <c r="C55" s="177"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="179" t="s">
+      <c r="B56" s="177" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="179"/>
-      <c r="D56" s="179"/>
+      <c r="C56" s="177"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="179"/>
-      <c r="D57" s="179"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="177"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="179" t="s">
+      <c r="B58" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="179"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="179"/>
-      <c r="D59" s="179"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="179" t="s">
+      <c r="B60" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="179"/>
+      <c r="C60" s="177"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
-      <c r="D61" s="179"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="179"/>
-      <c r="D62" s="179"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="179"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="179"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="177"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -8568,19 +9511,19 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
-      <c r="B74" s="183"/>
-      <c r="C74" s="183"/>
-      <c r="D74" s="183"/>
+      <c r="B74" s="179"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="179"/>
       <c r="E74" s="36"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="180" t="s">
+      <c r="B75" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="180"/>
-      <c r="D75" s="180"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
       <c r="E75" s="36">
         <v>0</v>
       </c>
@@ -8588,9 +9531,9 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="183"/>
-      <c r="C76" s="183"/>
-      <c r="D76" s="183"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="179"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
@@ -8625,31 +9568,31 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="177"/>
-      <c r="C80" s="177"/>
-      <c r="D80" s="177"/>
-      <c r="E80" s="177"/>
+      <c r="B80" s="182"/>
+      <c r="C80" s="182"/>
+      <c r="D80" s="182"/>
+      <c r="E80" s="182"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="185" t="s">
+      <c r="A81" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="185"/>
-      <c r="C81" s="185"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="185"/>
-      <c r="F81" s="185"/>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="176"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="181" t="s">
+      <c r="A82" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="181"/>
-      <c r="C82" s="181"/>
-      <c r="D82" s="181"/>
-      <c r="E82" s="181"/>
-      <c r="F82" s="181"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="185"/>
+      <c r="E82" s="185"/>
+      <c r="F82" s="185"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
@@ -8661,26 +9604,26 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="178"/>
-      <c r="C84" s="178"/>
-      <c r="D84" s="178"/>
-      <c r="E84" s="178"/>
+      <c r="B84" s="183"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="184" t="s">
+      <c r="A85" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="184"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="184"/>
-      <c r="F85" s="184"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="175"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="175"/>
+      <c r="F85" s="175"/>
     </row>
     <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="175"/>
-      <c r="C87" s="176"/>
-      <c r="D87" s="176"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -8690,6 +9633,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -8702,35 +9674,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 B12:B20 B59:B65 B33:B58" xr:uid="{227B29FC-39C6-4C55-BABB-05FEB88694B6}">
@@ -9962,14 +10905,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="184" t="s">
+      <c r="A88" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="184"/>
-      <c r="C88" s="184"/>
-      <c r="D88" s="184"/>
-      <c r="E88" s="184"/>
-      <c r="F88" s="184"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="175"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="175"/>
+      <c r="F88" s="175"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>

--- a/Factures_Excel/1675 - Les entreprises Lanthier et Papineau.xlsx
+++ b/Factures_Excel/1675 - Les entreprises Lanthier et Papineau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDFDB5-A326-4B94-86C6-309AD776CB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E0A15B-91EE-4B1D-A94E-5B3621ABFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="21-03-23" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2024-11-16 - 24-24631" sheetId="14" r:id="rId10"/>
     <sheet name="2024-12-22 - 24-24714" sheetId="15" r:id="rId11"/>
     <sheet name="2025-02-28 - 25-24754" sheetId="16" r:id="rId12"/>
+    <sheet name="2025-05-17 - 25-24939" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="dnrServices">OFFSET(#REF!,,,COUNTA(#REF!)-1,1)</definedName>
@@ -43,6 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2024-11-16 - 24-24631'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2024-12-22 - 24-24714'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2025-02-28 - 25-24754'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2025-05-17 - 25-24939'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'21-03-23'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'28-07-24'!$A$1:$F$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'31-05-23'!$A$1:$F$87</definedName>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="158">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -516,6 +518,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Préparation des directives à l'intention de votre comptable pour la préparation des formulaires T5/Relevés 3;</t>
+  </si>
+  <si>
+    <t>Le 17 MAI 2025</t>
+  </si>
+  <si>
+    <t>9529-2009 Québec Inc.</t>
+  </si>
+  <si>
+    <t>25-24939</t>
+  </si>
+  <si>
+    <t>FEE NOTE</t>
+  </si>
+  <si>
+    <t>Billing for work carried out, including:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des déclarations de revenus et impacts de la réorganisation sur les différentes déclarations;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Démarches d'obtention des divers numéros requis;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de déclarations de revenus ;</t>
   </si>
 </sst>
 </file>
@@ -872,7 +898,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,6 +920,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,7 +1137,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1525,39 +1557,39 @@
     <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,6 +1643,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1840,6 +1875,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA07041D-9DA2-7286-AD69-CDF558EC7374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE2A098-3751-007D-7CA0-5F330E8EE02B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,14 +2854,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2781,265 +2882,265 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177" t="s">
+      <c r="B47" s="179" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="179" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -3069,17 +3170,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="179"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3186,19 +3287,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="183"/>
+      <c r="D76" s="183"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -3206,9 +3307,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -3243,31 +3344,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
+      <c r="B82" s="177"/>
+      <c r="C82" s="177"/>
+      <c r="D82" s="177"/>
+      <c r="E82" s="177"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="181"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -3279,26 +3380,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="176"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -3308,6 +3409,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B89:D89"/>
     <mergeCell ref="B82:E82"/>
     <mergeCell ref="B86:E86"/>
@@ -3324,33 +3452,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B52:D52"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5127,6 +5228,857 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="137"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="139"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="142"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="144"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="142"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="142"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="142"/>
+      <c r="D39" s="143"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="144"/>
+      <c r="D40" s="143"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="142"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="141" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="142"/>
+      <c r="D42" s="143"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="142"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="142"/>
+      <c r="D44" s="143"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="143"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="142"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="142"/>
+      <c r="D46" s="143"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="142"/>
+      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="142"/>
+      <c r="D48" s="143"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="142"/>
+      <c r="D49" s="143"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="143"/>
+      <c r="E52" s="143"/>
+      <c r="F52" s="143"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="143"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="143"/>
+      <c r="F62" s="143"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="169"/>
+      <c r="E63" s="143"/>
+      <c r="F63" s="143"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="173"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="170" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="171" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="148">
+        <v>45.6</v>
+      </c>
+      <c r="D66" s="149">
+        <v>400</v>
+      </c>
+      <c r="E66" s="172"/>
+      <c r="F66" s="172"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="100"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="101">
+        <v>18240</v>
+      </c>
+      <c r="F69" s="101"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="104"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="105">
+        <v>0</v>
+      </c>
+      <c r="F70" s="105"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="174" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="105">
+        <v>0</v>
+      </c>
+      <c r="F71" s="105"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="105">
+        <v>0</v>
+      </c>
+      <c r="F72" s="105"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="100"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="107">
+        <v>18240</v>
+      </c>
+      <c r="F73" s="107"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="108">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="109">
+        <v>912</v>
+      </c>
+      <c r="F74" s="109"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="111">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="112">
+        <v>1819.44</v>
+      </c>
+      <c r="F75" s="109"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="100"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>20971.439999999999</v>
+      </c>
+      <c r="F77" s="118"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="110"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="110"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="100"/>
+      <c r="C80" s="110"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="119"/>
+      <c r="F80" s="110"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="201" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="202"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="154">
+        <v>20971.439999999999</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="128"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="193"/>
+      <c r="D83" s="193"/>
+      <c r="E83" s="193"/>
+      <c r="F83" s="155"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="195"/>
+      <c r="C84" s="195"/>
+      <c r="D84" s="195"/>
+      <c r="E84" s="195"/>
+      <c r="F84" s="113"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="197" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="197"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="130"/>
+      <c r="B86" s="130"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
+      <c r="C87" s="130"/>
+      <c r="D87" s="130"/>
+      <c r="E87" s="130"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="203"/>
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB6CABA-AE8A-4735-A4DF-45D3FAE23306}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -5209,7 +6161,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="204"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -5304,7 +6256,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -5332,7 +6284,7 @@
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="62"/>
       <c r="B24" s="63" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="60"/>
@@ -5375,7 +6327,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -5389,7 +6341,7 @@
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="200" t="s">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="B30" s="200"/>
       <c r="C30" s="200"/>
@@ -5408,7 +6360,7 @@
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="113" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="C32" s="139"/>
       <c r="D32" s="140"/>
@@ -5426,7 +6378,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="141" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C34" s="142"/>
       <c r="D34" s="143"/>
@@ -5446,7 +6398,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="141" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C36" s="142"/>
       <c r="D36" s="143"/>
@@ -5466,7 +6418,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="141" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="C38" s="142"/>
       <c r="D38" s="143"/>
@@ -5486,7 +6438,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="141" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="C40" s="144"/>
       <c r="D40" s="143"/>
@@ -5506,7 +6458,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="141" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C42" s="142"/>
       <c r="D42" s="143"/>
@@ -5515,9 +6467,7 @@
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B43" s="141"/>
       <c r="C43" s="142"/>
       <c r="D43" s="143"/>
       <c r="E43" s="143"/>
@@ -5525,9 +6475,7 @@
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
-      <c r="B44" s="141" t="s">
-        <v>33</v>
-      </c>
+      <c r="B44" s="141"/>
       <c r="C44" s="142"/>
       <c r="D44" s="143"/>
       <c r="E44" s="143"/>
@@ -5535,9 +6483,7 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
-      <c r="B45" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B45" s="141"/>
       <c r="C45" s="142"/>
       <c r="D45" s="143"/>
       <c r="E45" s="143"/>
@@ -5545,9 +6491,7 @@
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
-      <c r="B46" s="141" t="s">
-        <v>148</v>
-      </c>
+      <c r="B46" s="141"/>
       <c r="C46" s="142"/>
       <c r="D46" s="143"/>
       <c r="E46" s="143"/>
@@ -5555,9 +6499,7 @@
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
-      <c r="B47" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B47" s="141"/>
       <c r="C47" s="142"/>
       <c r="D47" s="143"/>
       <c r="E47" s="143"/>
@@ -5565,9 +6507,7 @@
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
-      <c r="B48" s="141" t="s">
-        <v>39</v>
-      </c>
+      <c r="B48" s="141"/>
       <c r="C48" s="142"/>
       <c r="D48" s="143"/>
       <c r="E48" s="143"/>
@@ -5575,9 +6515,7 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
-      <c r="B49" s="141" t="s">
-        <v>116</v>
-      </c>
+      <c r="B49" s="141"/>
       <c r="C49" s="142"/>
       <c r="D49" s="143"/>
       <c r="E49" s="143"/>
@@ -5585,9 +6523,7 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
-      <c r="B50" s="141" t="s">
-        <v>149</v>
-      </c>
+      <c r="B50" s="141"/>
       <c r="C50" s="145"/>
       <c r="D50" s="145"/>
       <c r="E50" s="143"/>
@@ -5699,7 +6635,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="173"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="143"/>
@@ -5721,10 +6657,10 @@
       <c r="A66" s="78"/>
       <c r="B66" s="141"/>
       <c r="C66" s="148">
-        <v>45.6</v>
+        <v>24</v>
       </c>
       <c r="D66" s="149">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E66" s="172"/>
       <c r="F66" s="172"/>
@@ -5739,7 +6675,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="173"/>
+      <c r="B68" s="141"/>
       <c r="C68" s="152"/>
       <c r="D68" s="152"/>
       <c r="E68" s="152"/>
@@ -5753,7 +6689,7 @@
       <c r="C69" s="100"/>
       <c r="D69" s="60"/>
       <c r="E69" s="101">
-        <v>18240</v>
+        <v>9240</v>
       </c>
       <c r="F69" s="101"/>
     </row>
@@ -5765,7 +6701,7 @@
       <c r="C70" s="104"/>
       <c r="D70" s="60"/>
       <c r="E70" s="105">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F70" s="105"/>
     </row>
@@ -5801,7 +6737,7 @@
       <c r="C73" s="100"/>
       <c r="D73" s="60"/>
       <c r="E73" s="107">
-        <v>18240</v>
+        <v>9270</v>
       </c>
       <c r="F73" s="107"/>
     </row>
@@ -5815,7 +6751,7 @@
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="109">
-        <v>912</v>
+        <v>463.5</v>
       </c>
       <c r="F74" s="109"/>
     </row>
@@ -5829,7 +6765,7 @@
       </c>
       <c r="D75" s="104"/>
       <c r="E75" s="112">
-        <v>1819.44</v>
+        <v>924.68</v>
       </c>
       <c r="F75" s="109"/>
     </row>
@@ -5849,7 +6785,7 @@
       <c r="C77" s="100"/>
       <c r="D77" s="116"/>
       <c r="E77" s="117">
-        <v>20971.439999999999</v>
+        <v>10658.18</v>
       </c>
       <c r="F77" s="118"/>
     </row>
@@ -5889,7 +6825,7 @@
       <c r="C81" s="202"/>
       <c r="D81" s="153"/>
       <c r="E81" s="154">
-        <v>20971.439999999999</v>
+        <v>10658.18</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -6114,14 +7050,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6142,251 +7078,251 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
@@ -6416,17 +7352,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="177"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="177"/>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -6533,19 +7469,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="179"/>
-      <c r="C75" s="179"/>
-      <c r="D75" s="179"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="183"/>
+      <c r="D75" s="183"/>
       <c r="E75" s="36"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="184" t="s">
+      <c r="B76" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="184"/>
-      <c r="D76" s="184"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="180"/>
       <c r="E76" s="36">
         <v>0</v>
       </c>
@@ -6553,9 +7489,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="179"/>
-      <c r="C77" s="179"/>
-      <c r="D77" s="179"/>
+      <c r="B77" s="183"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
@@ -6590,31 +7526,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="182"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="182"/>
-      <c r="E81" s="182"/>
+      <c r="B81" s="177"/>
+      <c r="C81" s="177"/>
+      <c r="D81" s="177"/>
+      <c r="E81" s="177"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="176" t="s">
+      <c r="A82" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="176"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="176"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="185"/>
+      <c r="E82" s="185"/>
+      <c r="F82" s="185"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="185" t="s">
+      <c r="A83" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="181"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
@@ -6626,26 +7562,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="178"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="184"/>
+      <c r="C86" s="184"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="184"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="180"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="176"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -6655,13 +7591,29 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
@@ -6674,29 +7626,13 @@
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="A86:F86"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B77 B12:B20 B33:B66" xr:uid="{E36AFE9F-6EBA-4430-943B-E836FA51FAE3}">
@@ -6854,14 +7790,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6882,249 +7818,249 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
@@ -7154,17 +8090,17 @@
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="177"/>
-      <c r="C65" s="177"/>
-      <c r="D65" s="177"/>
+      <c r="B65" s="179"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
@@ -7271,19 +8207,19 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="179"/>
-      <c r="C75" s="179"/>
-      <c r="D75" s="179"/>
+      <c r="B75" s="183"/>
+      <c r="C75" s="183"/>
+      <c r="D75" s="183"/>
       <c r="E75" s="36"/>
       <c r="F75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="184" t="s">
+      <c r="B76" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="184"/>
-      <c r="D76" s="184"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="180"/>
       <c r="E76" s="36">
         <v>0</v>
       </c>
@@ -7291,9 +8227,9 @@
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="179"/>
-      <c r="C77" s="179"/>
-      <c r="D77" s="179"/>
+      <c r="B77" s="183"/>
+      <c r="C77" s="183"/>
+      <c r="D77" s="183"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
@@ -7328,31 +8264,31 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="182"/>
-      <c r="C81" s="182"/>
-      <c r="D81" s="182"/>
-      <c r="E81" s="182"/>
+      <c r="B81" s="177"/>
+      <c r="C81" s="177"/>
+      <c r="D81" s="177"/>
+      <c r="E81" s="177"/>
       <c r="F81" s="21"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="176" t="s">
+      <c r="A82" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="176"/>
-      <c r="C82" s="176"/>
-      <c r="D82" s="176"/>
-      <c r="E82" s="176"/>
-      <c r="F82" s="176"/>
+      <c r="B82" s="185"/>
+      <c r="C82" s="185"/>
+      <c r="D82" s="185"/>
+      <c r="E82" s="185"/>
+      <c r="F82" s="185"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="185" t="s">
+      <c r="A83" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="185"/>
-      <c r="C83" s="185"/>
-      <c r="D83" s="185"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="185"/>
+      <c r="B83" s="181"/>
+      <c r="C83" s="181"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
+      <c r="F83" s="181"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
@@ -7364,26 +8300,26 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="178"/>
       <c r="F85" s="21"/>
     </row>
     <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="175" t="s">
+      <c r="A86" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="175"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="175"/>
-      <c r="E86" s="175"/>
-      <c r="F86" s="175"/>
+      <c r="B86" s="184"/>
+      <c r="C86" s="184"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="184"/>
     </row>
     <row r="88" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="180"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
+      <c r="B88" s="175"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="176"/>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7393,12 +8329,30 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B40:D40"/>
@@ -7411,30 +8365,12 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75:B77 B12:B20 B43:B66 B33:B42" xr:uid="{A3139CC4-EA17-49B9-A08F-62F3E1349236}">
@@ -7592,14 +8528,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -7620,257 +8556,257 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="179" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -7900,17 +8836,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="179"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8017,19 +8953,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="183"/>
+      <c r="D76" s="183"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8037,9 +8973,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8074,31 +9010,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
+      <c r="B82" s="177"/>
+      <c r="C82" s="177"/>
+      <c r="D82" s="177"/>
+      <c r="E82" s="177"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="181"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8110,26 +9046,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="176"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8139,30 +9075,12 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B38:D38"/>
@@ -8176,12 +9094,30 @@
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{5E03DC84-AA3F-4979-ACD0-CD3DDA544630}">
@@ -8339,14 +9275,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -8367,253 +9303,253 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177" t="s">
+      <c r="B35" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177" t="s">
+      <c r="B37" s="179" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177"/>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="B38" s="179"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="B40" s="179"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177"/>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="B46" s="179"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177"/>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="B54" s="179"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177"/>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -8643,17 +9579,17 @@
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="177"/>
-      <c r="D66" s="177"/>
+      <c r="B66" s="179"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="179"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="177"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="177"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="179"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -8760,19 +9696,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="183"/>
+      <c r="D76" s="183"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
     <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="184" t="s">
+      <c r="B77" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
       <c r="E77" s="36">
         <v>0</v>
       </c>
@@ -8780,9 +9716,9 @@
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="179"/>
-      <c r="D78" s="179"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
       <c r="E78" s="36"/>
       <c r="F78" s="21"/>
     </row>
@@ -8817,31 +9753,31 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="182"/>
-      <c r="C82" s="182"/>
-      <c r="D82" s="182"/>
-      <c r="E82" s="182"/>
+      <c r="B82" s="177"/>
+      <c r="C82" s="177"/>
+      <c r="D82" s="177"/>
+      <c r="E82" s="177"/>
       <c r="F82" s="21"/>
     </row>
     <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="176" t="s">
+      <c r="A83" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="176"/>
-      <c r="C83" s="176"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="176"/>
-      <c r="F83" s="176"/>
+      <c r="B83" s="185"/>
+      <c r="C83" s="185"/>
+      <c r="D83" s="185"/>
+      <c r="E83" s="185"/>
+      <c r="F83" s="185"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="185" t="s">
+      <c r="A84" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="185"/>
-      <c r="C84" s="185"/>
-      <c r="D84" s="185"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="185"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="181"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="21"/>
@@ -8853,26 +9789,26 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="183"/>
-      <c r="E86" s="183"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="175"/>
-      <c r="C87" s="175"/>
-      <c r="D87" s="175"/>
-      <c r="E87" s="175"/>
-      <c r="F87" s="175"/>
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
     </row>
     <row r="89" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="180"/>
-      <c r="C89" s="181"/>
-      <c r="D89" s="181"/>
+      <c r="B89" s="175"/>
+      <c r="C89" s="176"/>
+      <c r="D89" s="176"/>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -8882,6 +9818,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -8894,37 +9861,6 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76:B78 B12:B20 B33:B67" xr:uid="{0142793B-97D5-4F25-A98A-09A744201F8A}">
@@ -9082,14 +10018,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="182" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
+      <c r="D30" s="182"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -9110,277 +10046,277 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="177" t="s">
+      <c r="B34" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="177" t="s">
+      <c r="B36" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="177"/>
+      <c r="C36" s="179"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="177" t="s">
+      <c r="B38" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="177"/>
+      <c r="C38" s="179"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="177"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="179"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="177"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="179"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="179"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="B45" s="179"/>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="177"/>
+      <c r="C46" s="179"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="177"/>
-      <c r="C47" s="177"/>
-      <c r="D47" s="177"/>
+      <c r="B47" s="179"/>
+      <c r="C47" s="179"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="177"/>
-      <c r="D48" s="177"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="177"/>
-      <c r="C49" s="177"/>
-      <c r="D49" s="177"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="179"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="179"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="177"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="177"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="177"/>
-      <c r="D52" s="177"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="177"/>
-      <c r="C53" s="177"/>
-      <c r="D53" s="177"/>
+      <c r="B53" s="179"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="179"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="177"/>
-      <c r="D54" s="177"/>
+      <c r="C54" s="179"/>
+      <c r="D54" s="179"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="177"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="179"/>
+      <c r="D55" s="179"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="177" t="s">
+      <c r="B56" s="179" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
+      <c r="C56" s="179"/>
+      <c r="D56" s="179"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="177"/>
-      <c r="D57" s="177"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="179"/>
+      <c r="D57" s="179"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="177" t="s">
+      <c r="B58" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="177"/>
-      <c r="D58" s="177"/>
+      <c r="C58" s="179"/>
+      <c r="D58" s="179"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="177"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="179"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="177" t="s">
+      <c r="B60" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="177"/>
-      <c r="D60" s="177"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="179"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="177"/>
-      <c r="C61" s="177"/>
-      <c r="D61" s="177"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="179"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="177"/>
-      <c r="C62" s="177"/>
-      <c r="D62" s="177"/>
+      <c r="B62" s="179"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="179"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="177"/>
-      <c r="C63" s="177"/>
-      <c r="D63" s="177"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="179"/>
+      <c r="D63" s="179"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
@@ -9511,19 +10447,19 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21"/>
-      <c r="B74" s="179"/>
-      <c r="C74" s="179"/>
-      <c r="D74" s="179"/>
+      <c r="B74" s="183"/>
+      <c r="C74" s="183"/>
+      <c r="D74" s="183"/>
       <c r="E74" s="36"/>
       <c r="F74" s="21"/>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="21"/>
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="184"/>
-      <c r="D75" s="184"/>
+      <c r="C75" s="180"/>
+      <c r="D75" s="180"/>
       <c r="E75" s="36">
         <v>0</v>
       </c>
@@ -9531,9 +10467,9 @@
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="21"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="179"/>
-      <c r="D76" s="179"/>
+      <c r="B76" s="183"/>
+      <c r="C76" s="183"/>
+      <c r="D76" s="183"/>
       <c r="E76" s="36"/>
       <c r="F76" s="21"/>
     </row>
@@ -9568,31 +10504,31 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="182"/>
-      <c r="C80" s="182"/>
-      <c r="D80" s="182"/>
-      <c r="E80" s="182"/>
+      <c r="B80" s="177"/>
+      <c r="C80" s="177"/>
+      <c r="D80" s="177"/>
+      <c r="E80" s="177"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="176" t="s">
+      <c r="A81" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="B81" s="176"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="176"/>
-      <c r="F81" s="176"/>
+      <c r="B81" s="185"/>
+      <c r="C81" s="185"/>
+      <c r="D81" s="185"/>
+      <c r="E81" s="185"/>
+      <c r="F81" s="185"/>
     </row>
     <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="185" t="s">
+      <c r="A82" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="185"/>
-      <c r="C82" s="185"/>
-      <c r="D82" s="185"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="185"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="181"/>
+      <c r="D82" s="181"/>
+      <c r="E82" s="181"/>
+      <c r="F82" s="181"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
@@ -9604,26 +10540,26 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="21"/>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="183"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="178"/>
       <c r="F84" s="21"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="175" t="s">
+      <c r="A85" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="175"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="175"/>
-      <c r="E85" s="175"/>
-      <c r="F85" s="175"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
     </row>
     <row r="87" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="180"/>
-      <c r="C87" s="181"/>
-      <c r="D87" s="181"/>
+      <c r="B87" s="175"/>
+      <c r="C87" s="176"/>
+      <c r="D87" s="176"/>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -9633,35 +10569,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -9674,6 +10581,35 @@
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:F85"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B76 B12:B20 B59:B65 B33:B58" xr:uid="{227B29FC-39C6-4C55-BABB-05FEB88694B6}">
@@ -10905,14 +11841,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="175" t="s">
+      <c r="A88" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="175"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
+      <c r="B88" s="184"/>
+      <c r="C88" s="184"/>
+      <c r="D88" s="184"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="184"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
